--- a/Proyectos/proyectoCredito/Documentacion/PJ CREDITO.xlsx
+++ b/Proyectos/proyectoCredito/Documentacion/PJ CREDITO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fecc543124dac6b3/Documentos/GitHub/PERSONAL/Proyectos/proyectoCredito/Documentacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PERSONAL\Proyectos\proyectoCredito\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{70D7B1C7-39EC-4B62-992A-7199831F7B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DFD3C7E-DB03-4307-94C0-FB9C7E60BE20}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47566E35-49B3-4AEC-9AFE-05C5EFE22E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{1CB0A026-64F2-48AC-B9D8-8682899DB3CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1CB0A026-64F2-48AC-B9D8-8682899DB3CB}"/>
   </bookViews>
   <sheets>
     <sheet name="AC VS RE" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>REQUERIMIENTOS</t>
   </si>
@@ -102,18 +102,9 @@
     <t>DES_TIPO_USUARIO</t>
   </si>
   <si>
-    <t>TB_CLIENTE</t>
-  </si>
-  <si>
     <t>ID_CLIENTE</t>
   </si>
   <si>
-    <t>NOM_CLIENTE</t>
-  </si>
-  <si>
-    <t>APE_CLIENTE</t>
-  </si>
-  <si>
     <t>TB_PAGO</t>
   </si>
   <si>
@@ -129,9 +120,6 @@
     <t>CUOTA_DEUDA</t>
   </si>
   <si>
-    <t>DNI_CLIENTE</t>
-  </si>
-  <si>
     <t>DES_DEUDA</t>
   </si>
   <si>
@@ -151,6 +139,21 @@
   </si>
   <si>
     <t>ESTADO_PAGO</t>
+  </si>
+  <si>
+    <t>TB_DEUDOR</t>
+  </si>
+  <si>
+    <t>ID_DEUDOR</t>
+  </si>
+  <si>
+    <t>NOM_DEUDOR</t>
+  </si>
+  <si>
+    <t>APE_DEUDOR</t>
+  </si>
+  <si>
+    <t>DNI_DEUDOR</t>
   </si>
 </sst>
 </file>
@@ -628,10 +631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D220C0-6FDB-4206-A87C-09947B373F4C}">
-  <dimension ref="B3:J19"/>
+  <dimension ref="B3:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,116 +660,122 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Proyectos/proyectoCredito/Documentacion/PJ CREDITO.xlsx
+++ b/Proyectos/proyectoCredito/Documentacion/PJ CREDITO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PERSONAL\Proyectos\proyectoCredito\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47566E35-49B3-4AEC-9AFE-05C5EFE22E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC49FC0-913A-4A46-820D-C41F161F0903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1CB0A026-64F2-48AC-B9D8-8682899DB3CB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>REQUERIMIENTOS</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>DES_TIPO_USUARIO</t>
-  </si>
-  <si>
-    <t>ID_CLIENTE</t>
   </si>
   <si>
     <t>TB_PAGO</t>
@@ -230,13 +227,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,7 +632,7 @@
   <dimension ref="B3:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,64 +658,68 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -727,21 +729,21 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">

--- a/Proyectos/proyectoCredito/Documentacion/PJ CREDITO.xlsx
+++ b/Proyectos/proyectoCredito/Documentacion/PJ CREDITO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PERSONAL\Proyectos\proyectoCredito\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC49FC0-913A-4A46-820D-C41F161F0903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68FB2AD-4044-4185-AD3E-BE2C5BA7809D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1CB0A026-64F2-48AC-B9D8-8682899DB3CB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>REQUERIMIENTOS</t>
   </si>
@@ -87,9 +87,6 @@
     <t>MONTO_DEUDA</t>
   </si>
   <si>
-    <t>FECHA_DEUDA</t>
-  </si>
-  <si>
     <t>CLAVE_USUARIO</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>MONTO_PAGO</t>
   </si>
   <si>
-    <t>FECHA_PAGO</t>
-  </si>
-  <si>
     <t>CUOTA_DEUDA</t>
   </si>
   <si>
@@ -151,6 +145,18 @@
   </si>
   <si>
     <t>DNI_DEUDOR</t>
+  </si>
+  <si>
+    <t>FECHAACT_PAGO</t>
+  </si>
+  <si>
+    <t>FECHAREG_PAGO</t>
+  </si>
+  <si>
+    <t>FECHAREG_DEUDA</t>
+  </si>
+  <si>
+    <t>FECHAACT_DEUDA</t>
   </si>
 </sst>
 </file>
@@ -227,14 +233,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,10 +634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D220C0-6FDB-4206-A87C-09947B373F4C}">
-  <dimension ref="B3:J22"/>
+  <dimension ref="B3:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,110 +645,117 @@
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -762,23 +774,23 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
         <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Proyectos/proyectoCredito/Documentacion/PJ CREDITO.xlsx
+++ b/Proyectos/proyectoCredito/Documentacion/PJ CREDITO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PERSONAL\Proyectos\proyectoCredito\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68FB2AD-4044-4185-AD3E-BE2C5BA7809D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE0AE27-50FC-404A-9A47-E146B5BC8238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1CB0A026-64F2-48AC-B9D8-8682899DB3CB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>REQUERIMIENTOS</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>FECHAACT_DEUDA</t>
+  </si>
+  <si>
+    <t>ESTADO_DEUDOR</t>
+  </si>
+  <si>
+    <t>FECHAREG_DEUDOR</t>
+  </si>
+  <si>
+    <t>FECHAACT_DEUDOR</t>
   </si>
 </sst>
 </file>
@@ -634,10 +643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D220C0-6FDB-4206-A87C-09947B373F4C}">
-  <dimension ref="B3:K22"/>
+  <dimension ref="B3:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,18 +655,17 @@
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -687,12 +695,12 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
@@ -717,15 +725,15 @@
       <c r="J7"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
@@ -733,18 +741,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
@@ -757,6 +765,17 @@
       <c r="E16" t="s">
         <v>36</v>
       </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">

--- a/Proyectos/proyectoCredito/Documentacion/PJ CREDITO.xlsx
+++ b/Proyectos/proyectoCredito/Documentacion/PJ CREDITO.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PERSONAL\Proyectos\proyectoCredito\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE0AE27-50FC-404A-9A47-E146B5BC8238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A490BBF4-E2A4-4A22-87EB-58DBB6BE3E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1CB0A026-64F2-48AC-B9D8-8682899DB3CB}"/>
   </bookViews>
   <sheets>
     <sheet name="AC VS RE" sheetId="2" r:id="rId1"/>
     <sheet name="FN" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
+    <sheet name="GLOSARIO" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>REQUERIMIENTOS</t>
   </si>
@@ -132,21 +134,6 @@
     <t>ESTADO_PAGO</t>
   </si>
   <si>
-    <t>TB_DEUDOR</t>
-  </si>
-  <si>
-    <t>ID_DEUDOR</t>
-  </si>
-  <si>
-    <t>NOM_DEUDOR</t>
-  </si>
-  <si>
-    <t>APE_DEUDOR</t>
-  </si>
-  <si>
-    <t>DNI_DEUDOR</t>
-  </si>
-  <si>
     <t>FECHAACT_PAGO</t>
   </si>
   <si>
@@ -159,20 +146,71 @@
     <t>FECHAACT_DEUDA</t>
   </si>
   <si>
-    <t>ESTADO_DEUDOR</t>
-  </si>
-  <si>
-    <t>FECHAREG_DEUDOR</t>
-  </si>
-  <si>
-    <t>FECHAACT_DEUDOR</t>
+    <t>Prestatario</t>
+  </si>
+  <si>
+    <t>Prestamista</t>
+  </si>
+  <si>
+    <t>El que ofrece el dinero que el prestatario requiere</t>
+  </si>
+  <si>
+    <t>Quien solicita el dinero al prestamista</t>
+  </si>
+  <si>
+    <t>TERMINO</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>GLOSARIO DE TERMINOS</t>
+  </si>
+  <si>
+    <t>letras</t>
+  </si>
+  <si>
+    <t>operación</t>
+  </si>
+  <si>
+    <t>ancho total</t>
+  </si>
+  <si>
+    <t>constante</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>TB_PERSONA</t>
+  </si>
+  <si>
+    <t>ID_PERSONA</t>
+  </si>
+  <si>
+    <t>NOM_PERSONA</t>
+  </si>
+  <si>
+    <t>APE_PERSONA</t>
+  </si>
+  <si>
+    <t>DNI_PERSONA</t>
+  </si>
+  <si>
+    <t>FECHAREG_PERSONA</t>
+  </si>
+  <si>
+    <t>FECHAACT_PERSONA</t>
+  </si>
+  <si>
+    <t>ESTADO_PERSONA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,16 +233,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +259,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -238,17 +274,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,139 +697,141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D220C0-6FDB-4206-A87C-09947B373F4C}">
-  <dimension ref="B3:L22"/>
+  <dimension ref="B3:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="2" max="2" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J7"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16"/>
-      <c r="L16" s="5"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -783,19 +839,19 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -805,10 +861,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -816,4 +872,150 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3237F78B-ED65-41EC-AAC8-63FF91F599B7}">
+  <dimension ref="D7:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8">
+        <v>11</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <f>J8*K8</f>
+        <v>110</v>
+      </c>
+      <c r="M8">
+        <f>L8*100/J8</f>
+        <v>1000</v>
+      </c>
+      <c r="P8">
+        <v>11</v>
+      </c>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>122</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <f>J9*K9</f>
+        <v>1220</v>
+      </c>
+      <c r="M9">
+        <f>L9*100/J9</f>
+        <v>1000</v>
+      </c>
+      <c r="P9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <f>J10*K10</f>
+        <v>110</v>
+      </c>
+      <c r="M10">
+        <f>L10*100/J10</f>
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A50D39-4EF6-44B5-9BA5-26C25395D561}">
+  <dimension ref="B3:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="46.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Proyectos/proyectoCredito/Documentacion/PJ CREDITO.xlsx
+++ b/Proyectos/proyectoCredito/Documentacion/PJ CREDITO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PERSONAL\Proyectos\proyectoCredito\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A490BBF4-E2A4-4A22-87EB-58DBB6BE3E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ED11FF-94B9-444C-9B80-EB3F7CBE1B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1CB0A026-64F2-48AC-B9D8-8682899DB3CB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>REQUERIMIENTOS</t>
   </si>
@@ -204,6 +204,21 @@
   </si>
   <si>
     <t>ESTADO_PERSONA</t>
+  </si>
+  <si>
+    <t>TB_CRONOGRAMA_PAGO</t>
+  </si>
+  <si>
+    <t>ID_CRONO_PAGO</t>
+  </si>
+  <si>
+    <t>CUOTA_CRONO_PAGO</t>
+  </si>
+  <si>
+    <t>FECHA_CRONO_PAGO</t>
+  </si>
+  <si>
+    <t>MONTO_CRONO_PAGO</t>
   </si>
 </sst>
 </file>
@@ -293,16 +308,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,61 +714,60 @@
   <dimension ref="B3:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
-    <col min="2" max="2" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="6"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -762,27 +775,30 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -792,18 +808,34 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -811,25 +843,25 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -839,19 +871,19 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -861,10 +893,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" t="s">
         <v>20</v>
       </c>
     </row>
